--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd53</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H2">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I2">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J2">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.769341293356856</v>
+        <v>1.16617</v>
       </c>
       <c r="N2">
-        <v>0.769341293356856</v>
+        <v>2.33234</v>
       </c>
       <c r="O2">
-        <v>0.001433404237739587</v>
+        <v>0.002159413778923105</v>
       </c>
       <c r="P2">
-        <v>0.001433404237739587</v>
+        <v>0.001440646169678522</v>
       </c>
       <c r="Q2">
-        <v>0.2845405706184959</v>
+        <v>0.100320357335</v>
       </c>
       <c r="R2">
-        <v>0.2845405706184959</v>
+        <v>0.40128142934</v>
       </c>
       <c r="S2">
-        <v>0.0001307731386333626</v>
+        <v>4.029928747412515E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001307731386333626</v>
+        <v>2.099026317023115E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H3">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I3">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J3">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>257.98953201482</v>
+        <v>259.9639433333334</v>
       </c>
       <c r="N3">
-        <v>257.98953201482</v>
+        <v>779.89183</v>
       </c>
       <c r="O3">
-        <v>0.4806752109573353</v>
+        <v>0.4813789766990964</v>
       </c>
       <c r="P3">
-        <v>0.4806752109573353</v>
+        <v>0.4817257250885689</v>
       </c>
       <c r="Q3">
-        <v>95.41732555754726</v>
+        <v>22.36352820722167</v>
       </c>
       <c r="R3">
-        <v>95.41732555754726</v>
+        <v>134.18116924333</v>
       </c>
       <c r="S3">
-        <v>0.04385323019504312</v>
+        <v>0.00898356301851118</v>
       </c>
       <c r="T3">
-        <v>0.04385323019504312</v>
+        <v>0.007018760024701875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H4">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I4">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J4">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>276.900115933549</v>
+        <v>277.297302</v>
       </c>
       <c r="N4">
-        <v>276.900115933549</v>
+        <v>831.8919060000001</v>
       </c>
       <c r="O4">
-        <v>0.515908613039476</v>
+        <v>0.5134754064990537</v>
       </c>
       <c r="P4">
-        <v>0.515908613039476</v>
+        <v>0.5138452746878521</v>
       </c>
       <c r="Q4">
-        <v>102.4113974804074</v>
+        <v>23.854639053201</v>
       </c>
       <c r="R4">
-        <v>102.4113974804074</v>
+        <v>143.127834319206</v>
       </c>
       <c r="S4">
-        <v>0.04706766367703055</v>
+        <v>0.009582551162435409</v>
       </c>
       <c r="T4">
-        <v>0.04706766367703055</v>
+        <v>0.007486742943192327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H5">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I5">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J5">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06419958466685</v>
+        <v>1.612669333333334</v>
       </c>
       <c r="N5">
-        <v>1.06419958466685</v>
+        <v>4.838008</v>
       </c>
       <c r="O5">
-        <v>0.001982771765449236</v>
+        <v>0.002986203022926964</v>
       </c>
       <c r="P5">
-        <v>0.001982771765449236</v>
+        <v>0.002988354053900394</v>
       </c>
       <c r="Q5">
-        <v>0.3935937921021165</v>
+        <v>0.1387306857346667</v>
       </c>
       <c r="R5">
-        <v>0.3935937921021165</v>
+        <v>0.8323841144080001</v>
       </c>
       <c r="S5">
-        <v>0.0001808933447624682</v>
+        <v>5.57289460925129E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001808933447624682</v>
+        <v>4.354041912400579E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H6">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I6">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J6">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.769341293356856</v>
+        <v>1.16617</v>
       </c>
       <c r="N6">
-        <v>0.769341293356856</v>
+        <v>2.33234</v>
       </c>
       <c r="O6">
-        <v>0.001433404237739587</v>
+        <v>0.002159413778923105</v>
       </c>
       <c r="P6">
-        <v>0.001433404237739587</v>
+        <v>0.001440646169678522</v>
       </c>
       <c r="Q6">
-        <v>0.7225703845999476</v>
+        <v>0.44037727859</v>
       </c>
       <c r="R6">
-        <v>0.7225703845999476</v>
+        <v>2.64226367154</v>
       </c>
       <c r="S6">
-        <v>0.0003320890123761804</v>
+        <v>0.0001769021863399975</v>
       </c>
       <c r="T6">
-        <v>0.0003320890123761804</v>
+        <v>0.0001382117530880648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H7">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I7">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J7">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>257.98953201482</v>
+        <v>259.9639433333334</v>
       </c>
       <c r="N7">
-        <v>257.98953201482</v>
+        <v>779.89183</v>
       </c>
       <c r="O7">
-        <v>0.4806752109573353</v>
+        <v>0.4813789766990964</v>
       </c>
       <c r="P7">
-        <v>0.4806752109573353</v>
+        <v>0.4817257250885689</v>
       </c>
       <c r="Q7">
-        <v>242.3054592030599</v>
+        <v>98.16940402913667</v>
       </c>
       <c r="R7">
-        <v>242.3054592030599</v>
+        <v>883.52463626223</v>
       </c>
       <c r="S7">
-        <v>0.1113621348938231</v>
+        <v>0.03943523666809633</v>
       </c>
       <c r="T7">
-        <v>0.1113621348938231</v>
+        <v>0.04621548189516064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H8">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J8">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>276.900115933549</v>
+        <v>277.297302</v>
       </c>
       <c r="N8">
-        <v>276.900115933549</v>
+        <v>831.8919060000001</v>
       </c>
       <c r="O8">
-        <v>0.515908613039476</v>
+        <v>0.5134754064990537</v>
       </c>
       <c r="P8">
-        <v>0.515908613039476</v>
+        <v>0.5138452746878521</v>
       </c>
       <c r="Q8">
-        <v>260.066403550067</v>
+        <v>104.714948262354</v>
       </c>
       <c r="R8">
-        <v>260.066403550067</v>
+        <v>942.4345343611861</v>
       </c>
       <c r="S8">
-        <v>0.1195249583263548</v>
+        <v>0.04206462093003814</v>
       </c>
       <c r="T8">
-        <v>0.1195249583263548</v>
+        <v>0.04929694586039411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H9">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J9">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06419958466685</v>
+        <v>1.612669333333334</v>
       </c>
       <c r="N9">
-        <v>1.06419958466685</v>
+        <v>4.838008</v>
       </c>
       <c r="O9">
-        <v>0.001982771765449236</v>
+        <v>0.002986203022926964</v>
       </c>
       <c r="P9">
-        <v>0.001982771765449236</v>
+        <v>0.002988354053900394</v>
       </c>
       <c r="Q9">
-        <v>0.9995032241524979</v>
+        <v>0.6089874823386667</v>
       </c>
       <c r="R9">
-        <v>0.9995032241524979</v>
+        <v>5.480887341048001</v>
       </c>
       <c r="S9">
-        <v>0.0004593656834681669</v>
+        <v>0.0002446339135032911</v>
       </c>
       <c r="T9">
-        <v>0.0004593656834681669</v>
+        <v>0.000286694721667545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H10">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I10">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J10">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.769341293356856</v>
+        <v>1.16617</v>
       </c>
       <c r="N10">
-        <v>0.769341293356856</v>
+        <v>2.33234</v>
       </c>
       <c r="O10">
-        <v>0.001433404237739587</v>
+        <v>0.002159413778923105</v>
       </c>
       <c r="P10">
-        <v>0.001433404237739587</v>
+        <v>0.001440646169678522</v>
       </c>
       <c r="Q10">
-        <v>0.2745568530431522</v>
+        <v>1.467699191156667</v>
       </c>
       <c r="R10">
-        <v>0.2745568530431522</v>
+        <v>8.80619514694</v>
       </c>
       <c r="S10">
-        <v>0.0001261846819513548</v>
+        <v>0.0005895835421763201</v>
       </c>
       <c r="T10">
-        <v>0.0001261846819513548</v>
+        <v>0.0004606352054883331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H11">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I11">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J11">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>257.98953201482</v>
+        <v>259.9639433333334</v>
       </c>
       <c r="N11">
-        <v>257.98953201482</v>
+        <v>779.89183</v>
       </c>
       <c r="O11">
-        <v>0.4806752109573353</v>
+        <v>0.4813789766990964</v>
       </c>
       <c r="P11">
-        <v>0.4806752109573353</v>
+        <v>0.4817257250885689</v>
       </c>
       <c r="Q11">
-        <v>92.06940357900305</v>
+        <v>327.1811737227256</v>
       </c>
       <c r="R11">
-        <v>92.06940357900305</v>
+        <v>2944.63056350453</v>
       </c>
       <c r="S11">
-        <v>0.042314545345701</v>
+        <v>0.1314306340830161</v>
       </c>
       <c r="T11">
-        <v>0.042314545345701</v>
+        <v>0.15402798621587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H12">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I12">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J12">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>276.900115933549</v>
+        <v>277.297302</v>
       </c>
       <c r="N12">
-        <v>276.900115933549</v>
+        <v>831.8919060000001</v>
       </c>
       <c r="O12">
-        <v>0.515908613039476</v>
+        <v>0.5134754064990537</v>
       </c>
       <c r="P12">
-        <v>0.515908613039476</v>
+        <v>0.5138452746878521</v>
       </c>
       <c r="Q12">
-        <v>98.81807345382592</v>
+        <v>348.996309161894</v>
       </c>
       <c r="R12">
-        <v>98.81807345382592</v>
+        <v>3140.966782457047</v>
       </c>
       <c r="S12">
-        <v>0.04541619351915006</v>
+        <v>0.140193904447119</v>
       </c>
       <c r="T12">
-        <v>0.04541619351915006</v>
+        <v>0.1642979578725191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H13">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I13">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J13">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.06419958466685</v>
+        <v>1.612669333333334</v>
       </c>
       <c r="N13">
-        <v>1.06419958466685</v>
+        <v>4.838008</v>
       </c>
       <c r="O13">
-        <v>0.001982771765449236</v>
+        <v>0.002986203022926964</v>
       </c>
       <c r="P13">
-        <v>0.001982771765449236</v>
+        <v>0.002988354053900394</v>
       </c>
       <c r="Q13">
-        <v>0.3797837078276154</v>
+        <v>2.029647029280889</v>
       </c>
       <c r="R13">
-        <v>0.3797837078276154</v>
+        <v>18.266823263528</v>
       </c>
       <c r="S13">
-        <v>0.0001745463129088308</v>
+        <v>0.0008153213492936634</v>
       </c>
       <c r="T13">
-        <v>0.0001745463129088308</v>
+        <v>0.0009555025464701544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H14">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I14">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J14">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.769341293356856</v>
+        <v>1.16617</v>
       </c>
       <c r="N14">
-        <v>0.769341293356856</v>
+        <v>2.33234</v>
       </c>
       <c r="O14">
-        <v>0.001433404237739587</v>
+        <v>0.002159413778923105</v>
       </c>
       <c r="P14">
-        <v>0.001433404237739587</v>
+        <v>0.001440646169678522</v>
       </c>
       <c r="Q14">
-        <v>0.4369415117542166</v>
+        <v>0.4376783724866666</v>
       </c>
       <c r="R14">
-        <v>0.4369415117542166</v>
+        <v>2.62607023492</v>
       </c>
       <c r="S14">
-        <v>0.0002008156965704453</v>
+        <v>0.0001758180196183749</v>
       </c>
       <c r="T14">
-        <v>0.0002008156965704453</v>
+        <v>0.0001373647054266684</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H15">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I15">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J15">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>257.98953201482</v>
+        <v>259.9639433333334</v>
       </c>
       <c r="N15">
-        <v>257.98953201482</v>
+        <v>779.89183</v>
       </c>
       <c r="O15">
-        <v>0.4806752109573353</v>
+        <v>0.4813789766990964</v>
       </c>
       <c r="P15">
-        <v>0.4806752109573353</v>
+        <v>0.4817257250885689</v>
       </c>
       <c r="Q15">
-        <v>146.5231843249452</v>
+        <v>97.56776080961556</v>
       </c>
       <c r="R15">
-        <v>146.5231843249452</v>
+        <v>878.1098472865401</v>
       </c>
       <c r="S15">
-        <v>0.06734117618122984</v>
+        <v>0.03919355298888678</v>
       </c>
       <c r="T15">
-        <v>0.06734117618122984</v>
+        <v>0.04593224465241574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H16">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I16">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J16">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>276.900115933549</v>
+        <v>277.297302</v>
       </c>
       <c r="N16">
-        <v>276.900115933549</v>
+        <v>831.8919060000001</v>
       </c>
       <c r="O16">
-        <v>0.515908613039476</v>
+        <v>0.5134754064990537</v>
       </c>
       <c r="P16">
-        <v>0.515908613039476</v>
+        <v>0.5138452746878521</v>
       </c>
       <c r="Q16">
-        <v>157.2633060328953</v>
+        <v>104.073189873092</v>
       </c>
       <c r="R16">
-        <v>157.2633060328953</v>
+        <v>936.6587088578282</v>
       </c>
       <c r="S16">
-        <v>0.07227727166315005</v>
+        <v>0.04180682274724819</v>
       </c>
       <c r="T16">
-        <v>0.07227727166315005</v>
+        <v>0.048994823488222</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H17">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I17">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J17">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.06419958466685</v>
+        <v>1.612669333333334</v>
       </c>
       <c r="N17">
-        <v>1.06419958466685</v>
+        <v>4.838008</v>
       </c>
       <c r="O17">
-        <v>0.001982771765449236</v>
+        <v>0.002986203022926964</v>
       </c>
       <c r="P17">
-        <v>0.001982771765449236</v>
+        <v>0.002988354053900394</v>
       </c>
       <c r="Q17">
-        <v>0.6044040263374472</v>
+        <v>0.605255227944889</v>
       </c>
       <c r="R17">
-        <v>0.6044040263374472</v>
+        <v>5.447297051504001</v>
       </c>
       <c r="S17">
-        <v>0.0002777804632744761</v>
+        <v>0.0002431346445937999</v>
       </c>
       <c r="T17">
-        <v>0.0002777804632744761</v>
+        <v>0.0002849376779422661</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H18">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I18">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J18">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.769341293356856</v>
+        <v>1.16617</v>
       </c>
       <c r="N18">
-        <v>0.769341293356856</v>
+        <v>2.33234</v>
       </c>
       <c r="O18">
-        <v>0.001433404237739587</v>
+        <v>0.002159413778923105</v>
       </c>
       <c r="P18">
-        <v>0.001433404237739587</v>
+        <v>0.001440646169678522</v>
       </c>
       <c r="Q18">
-        <v>1.40023958118613</v>
+        <v>0.6738087500433333</v>
       </c>
       <c r="R18">
-        <v>1.40023958118613</v>
+        <v>4.04285250026</v>
       </c>
       <c r="S18">
-        <v>0.0006435417082082443</v>
+        <v>0.0002706730043823685</v>
       </c>
       <c r="T18">
-        <v>0.0006435417082082443</v>
+        <v>0.0002114738727841384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H19">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I19">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J19">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>257.98953201482</v>
+        <v>259.9639433333334</v>
       </c>
       <c r="N19">
-        <v>257.98953201482</v>
+        <v>779.89183</v>
       </c>
       <c r="O19">
-        <v>0.4806752109573353</v>
+        <v>0.4813789766990964</v>
       </c>
       <c r="P19">
-        <v>0.4806752109573353</v>
+        <v>0.4817257250885689</v>
       </c>
       <c r="Q19">
-        <v>469.553834401131</v>
+        <v>150.2062132568745</v>
       </c>
       <c r="R19">
-        <v>469.553834401131</v>
+        <v>1351.85591931187</v>
       </c>
       <c r="S19">
-        <v>0.2158041243415382</v>
+        <v>0.06033873412377368</v>
       </c>
       <c r="T19">
-        <v>0.2158041243415382</v>
+        <v>0.07071299452172877</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H20">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I20">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J20">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>276.900115933549</v>
+        <v>277.297302</v>
       </c>
       <c r="N20">
-        <v>276.900115933549</v>
+        <v>831.8919060000001</v>
       </c>
       <c r="O20">
-        <v>0.515908613039476</v>
+        <v>0.5134754064990537</v>
       </c>
       <c r="P20">
-        <v>0.515908613039476</v>
+        <v>0.5138452746878521</v>
       </c>
       <c r="Q20">
-        <v>503.9720416844153</v>
+        <v>160.221364338826</v>
       </c>
       <c r="R20">
-        <v>503.9720416844153</v>
+        <v>1441.992279049434</v>
       </c>
       <c r="S20">
-        <v>0.2316225258537905</v>
+        <v>0.0643618802056861</v>
       </c>
       <c r="T20">
-        <v>0.2316225258537905</v>
+        <v>0.07542785490091429</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5777963333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.733389</v>
+      </c>
+      <c r="I21">
+        <v>0.1253455947277287</v>
+      </c>
+      <c r="J21">
+        <v>0.1467909867357149</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.612669333333334</v>
+      </c>
+      <c r="N21">
+        <v>4.838008</v>
+      </c>
+      <c r="O21">
+        <v>0.002986203022926964</v>
+      </c>
+      <c r="P21">
+        <v>0.002988354053900394</v>
+      </c>
+      <c r="Q21">
+        <v>0.9317944276791112</v>
+      </c>
+      <c r="R21">
+        <v>8.386149849112002</v>
+      </c>
+      <c r="S21">
+        <v>0.0003743073938865214</v>
+      </c>
+      <c r="T21">
+        <v>0.0004386634402877127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.934301</v>
+      </c>
+      <c r="H22">
+        <v>3.868602</v>
+      </c>
+      <c r="I22">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J22">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.16617</v>
+      </c>
+      <c r="N22">
+        <v>2.33234</v>
+      </c>
+      <c r="O22">
+        <v>0.002159413778923105</v>
+      </c>
+      <c r="P22">
+        <v>0.001440646169678522</v>
+      </c>
+      <c r="Q22">
+        <v>2.25572379717</v>
+      </c>
+      <c r="R22">
+        <v>9.02289518868</v>
+      </c>
+      <c r="S22">
+        <v>0.0009061377389319185</v>
+      </c>
+      <c r="T22">
+        <v>0.0004719703697210859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.934301</v>
+      </c>
+      <c r="H23">
+        <v>3.868602</v>
+      </c>
+      <c r="I23">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J23">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>259.9639433333334</v>
+      </c>
+      <c r="N23">
+        <v>779.89183</v>
+      </c>
+      <c r="O23">
+        <v>0.4813789766990964</v>
+      </c>
+      <c r="P23">
+        <v>0.4817257250885689</v>
+      </c>
+      <c r="Q23">
+        <v>502.8485155536101</v>
+      </c>
+      <c r="R23">
+        <v>3017.09109332166</v>
+      </c>
+      <c r="S23">
+        <v>0.2019972558168124</v>
+      </c>
+      <c r="T23">
+        <v>0.1578182577786919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="H21">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="I21">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="J21">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.06419958466685</v>
-      </c>
-      <c r="N21">
-        <v>1.06419958466685</v>
-      </c>
-      <c r="O21">
-        <v>0.001982771765449236</v>
-      </c>
-      <c r="P21">
-        <v>0.001982771765449236</v>
-      </c>
-      <c r="Q21">
-        <v>1.936896399035701</v>
-      </c>
-      <c r="R21">
-        <v>1.936896399035701</v>
-      </c>
-      <c r="S21">
-        <v>0.0008901859610352938</v>
-      </c>
-      <c r="T21">
-        <v>0.0008901859610352938</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.934301</v>
+      </c>
+      <c r="H24">
+        <v>3.868602</v>
+      </c>
+      <c r="I24">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J24">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>277.297302</v>
+      </c>
+      <c r="N24">
+        <v>831.8919060000001</v>
+      </c>
+      <c r="O24">
+        <v>0.5134754064990537</v>
+      </c>
+      <c r="P24">
+        <v>0.5138452746878521</v>
+      </c>
+      <c r="Q24">
+        <v>536.376448555902</v>
+      </c>
+      <c r="R24">
+        <v>3218.258691335413</v>
+      </c>
+      <c r="S24">
+        <v>0.2154656270065268</v>
+      </c>
+      <c r="T24">
+        <v>0.1683409496226103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.934301</v>
+      </c>
+      <c r="H25">
+        <v>3.868602</v>
+      </c>
+      <c r="I25">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J25">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.612669333333334</v>
+      </c>
+      <c r="N25">
+        <v>4.838008</v>
+      </c>
+      <c r="O25">
+        <v>0.002986203022926964</v>
+      </c>
+      <c r="P25">
+        <v>0.002988354053900394</v>
+      </c>
+      <c r="Q25">
+        <v>3.119387904136</v>
+      </c>
+      <c r="R25">
+        <v>18.716327424816</v>
+      </c>
+      <c r="S25">
+        <v>0.001253076775557175</v>
+      </c>
+      <c r="T25">
+        <v>0.0009790152484087104</v>
       </c>
     </row>
   </sheetData>
